--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,24 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,85 +82,88 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -169,52 +172,43 @@
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>19</t>
   </si>
   <si>
     <t>consumer</t>
@@ -223,16 +217,16 @@
     <t>san</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -590,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +677,13 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4728682170542636</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C6">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4429530201342282</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3866666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3636363636363636</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3386243386243386</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8203125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2738095238095238</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1159,37 +1153,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1317204301075269</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,37 +1203,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009741350352704065</v>
+        <v>0.00841467519353753</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E14">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F14">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7666666666666667</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1253,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1279,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7547169811320755</v>
+        <v>0.74375</v>
       </c>
       <c r="L16">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1311,13 +1305,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1337,13 +1331,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1355,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1363,13 +1357,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7125</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1381,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1389,13 +1383,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6736292428198434</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1407,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1415,13 +1409,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1433,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1441,13 +1435,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6444444444444445</v>
+        <v>0.6501305483028721</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1459,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1467,13 +1461,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1485,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1493,13 +1487,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6279069767441861</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1511,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1519,13 +1513,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5728813559322034</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L25">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="M25">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1537,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1545,13 +1539,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5705882352941176</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L26">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1563,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>146</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1571,13 +1565,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5625</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1589,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1597,13 +1591,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5393258426966292</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1615,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1623,25 +1617,25 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5230769230769231</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L29">
+        <v>39</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>34</v>
-      </c>
-      <c r="M29">
-        <v>34</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1649,13 +1643,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.5230125523012552</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L30">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1667,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1675,13 +1669,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4743589743589743</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1693,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1701,13 +1695,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4714285714285714</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1719,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1727,13 +1721,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4520547945205479</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1745,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1753,7 +1747,7 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.40625</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L34">
         <v>26</v>
@@ -1771,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1779,25 +1773,25 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.2384615384615385</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>99</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1805,25 +1799,25 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.2362204724409449</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>97</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1831,25 +1825,25 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.191358024691358</v>
+        <v>0.1734939759036145</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>131</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1857,25 +1851,25 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.1774580335731415</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L38">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>343</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1883,25 +1877,25 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.1682242990654206</v>
+        <v>0.1556603773584906</v>
       </c>
       <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
         <v>36</v>
       </c>
-      <c r="M39">
-        <v>37</v>
-      </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1909,13 +1903,13 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.1674418604651163</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1927,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1935,25 +1929,25 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.1658653846153846</v>
+        <v>0.1198208286674132</v>
       </c>
       <c r="L41">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M41">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>347</v>
+        <v>786</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1961,25 +1955,25 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.1572327044025157</v>
+        <v>0.1138461538461538</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>134</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1987,25 +1981,25 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.1511627906976744</v>
+        <v>0.09788654060066741</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>146</v>
+        <v>811</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2013,25 +2007,25 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.1131019036954087</v>
+        <v>0.08912037037037036</v>
       </c>
       <c r="L44">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="M44">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2039,25 +2033,25 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.100111234705228</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L45">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>809</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2065,25 +2059,25 @@
         <v>64</v>
       </c>
       <c r="K46">
-        <v>0.09771986970684039</v>
+        <v>0.07421324565523719</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>277</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2091,25 +2085,25 @@
         <v>65</v>
       </c>
       <c r="K47">
-        <v>0.09509202453987731</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>295</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2117,25 +2111,25 @@
         <v>66</v>
       </c>
       <c r="K48">
-        <v>0.07621247113163972</v>
+        <v>0.07010309278350516</v>
       </c>
       <c r="L48">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N48">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>800</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2143,25 +2137,25 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>0.07596899224806201</v>
+        <v>0.04791666666666667</v>
       </c>
       <c r="L49">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M49">
         <v>54</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>596</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2169,77 +2163,77 @@
         <v>68</v>
       </c>
       <c r="K50">
-        <v>0.07216494845360824</v>
+        <v>0.04440497335701599</v>
       </c>
       <c r="L50">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>450</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="K51">
-        <v>0.07186472522310944</v>
+        <v>0.04412719013627515</v>
       </c>
       <c r="L51">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M51">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N51">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="O51">
-        <v>0.07999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1976</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.04223521767381416</v>
+        <v>0.02547169811320755</v>
       </c>
       <c r="L52">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="M52">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="N52">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="O52">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2948</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2247,77 +2241,25 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>0.03634475597092419</v>
+        <v>0.02512998266897747</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N53">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O53">
-        <v>0.12</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54">
-        <v>0.02775368603642671</v>
-      </c>
-      <c r="L54">
-        <v>32</v>
-      </c>
-      <c r="M54">
-        <v>40</v>
-      </c>
-      <c r="N54">
-        <v>0.8</v>
-      </c>
-      <c r="O54">
-        <v>0.2</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K55">
-        <v>0.02329241422725842</v>
-      </c>
-      <c r="L55">
-        <v>74</v>
-      </c>
-      <c r="M55">
-        <v>98</v>
-      </c>
-      <c r="N55">
-        <v>0.76</v>
-      </c>
-      <c r="O55">
-        <v>0.24</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>3103</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
